--- a/assembly/wand partlist.xlsx
+++ b/assembly/wand partlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Arduino\priWand\priWand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Arduino\priWand\priWand\assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4EB4B4-8326-485F-9C61-57E52DFD8AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D579DE6-53E5-40DD-80EA-91290212738E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{D66B4B8F-DBBF-4AC0-AA40-AEA7F9A0A194}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>item</t>
   </si>
@@ -52,15 +52,9 @@
     <t>audio amp</t>
   </si>
   <si>
-    <t>https://www.reichelt.de/de/en/developer-boards-audio-amplifier-class-d-pam8302a-debo-sound-amp1-p235505.html?PROVID=2788&amp;gclid=Cj0KCQjwuMuRBhCJARIsAHXdnqNk4agOJo3q_V-EEzaXOEnxIQZ6iQGCj8q-KR24H9QsqF12Yn-0s_IaApU6EALw_wcB&amp;&amp;r=1</t>
-  </si>
-  <si>
     <t>for 2. https://www.berrybase.de/raspberry-pi/raspberry-pi-computer/displays/8-ohm-5w-lautsprecher-passend-f-252-r-waveshare-displays?sPartner=g_shopping&amp;gclid=Cj0KCQiApL2QBhC8ARIsAGMm-KH6kq9ZmpYTb-jLkTrJjl6RPikgvAl0aNnh8y3iC_yK5_bUrXXG-RcaAvE0EALw_wcB&amp;c=56</t>
   </si>
   <si>
-    <t>•https://www.amazon.de/-/en/gp/product/B07XJY4VBQ/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;th=1</t>
-  </si>
-  <si>
     <t>small button+LED</t>
   </si>
   <si>
@@ -101,6 +95,27 @@
   </si>
   <si>
     <t>https://www.amazon.de/dp/B07W13X3TD?ref_=pe_27091401_487187591_302_E_DDE_dt_1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/gp/product/B07SR4S6MS/ref=ewc_pr_img_1?smid=A3B8GCWPRWBH74&amp;psc=1</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>https://www.berrybase.de/sensoren-module/audio-schall/adafruit-mono-2.5w-class-d-audio-verst-228-rker-pam8302</t>
+  </si>
+  <si>
+    <t>https://www.berrybase.de/sensoren-module/audio-schall/adafruit-i2s-3w-class-d-verst-228-rker-breakout-max98357a</t>
+  </si>
+  <si>
+    <t>I2S+3W</t>
+  </si>
+  <si>
+    <t>pi connector</t>
   </si>
 </sst>
 </file>
@@ -474,30 +489,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583F3FC5-51FE-4D91-AE74-A8D76C3EF00C}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="73" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -505,121 +520,161 @@
         <f>5.2/2</f>
         <v>2.6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4.7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>4.05</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>8.15</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>3.95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
       </c>
       <c r="B5">
         <v>11.13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>6.99</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>15</v>
       </c>
       <c r="B9">
         <v>34.159999999999997</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>16</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>7.15</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>0.79</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>6.15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15">
-        <f>SUM(B2:B12)</f>
-        <v>84.370000000000019</v>
+        <f>SUM(B2:B13)</f>
+        <v>85.670000000000016</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://www.amazon.de/-/en/gp/product/B07XJY4VBQ/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;th=1" xr:uid="{DA85D27F-0233-4ACC-A359-4E1D45E232CB}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{5716462E-E170-4E2F-9306-A52B9330719F}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{FC397EB5-345C-4A37-BBD8-171AD3D11961}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{5716462E-E170-4E2F-9306-A52B9330719F}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{FC397EB5-345C-4A37-BBD8-171AD3D11961}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{6ECFD4CA-B038-42CD-B2EF-560C6CB4612A}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{F3BC8700-3653-48EC-88E0-7277E479D015}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{433908BE-556B-4A23-84F0-2BF548E54081}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{93E94CFB-806C-42C0-A751-A3A866F0C4EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>